--- a/Data/数据库表结构.xlsx
+++ b/Data/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="113">
   <si>
     <t>序号</t>
   </si>
@@ -52,11 +52,11 @@
   </si>
   <si>
     <t>唯艺网表结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户信息表（UserInfomation）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UserGuid</t>
@@ -84,39 +84,39 @@
   </si>
   <si>
     <t>字符型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手机号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户扩展信息表（UserContact）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UserCard</t>
@@ -138,43 +138,43 @@
   </si>
   <si>
     <t>字符型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真实姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证正面照片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证反面照片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证申领日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>身份证到期日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户收货地址信息表（ReceiveInfo）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ReceiveName</t>
@@ -190,35 +190,35 @@
   </si>
   <si>
     <t>收件人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收件手机号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮编</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收货地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字符型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ResgitData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间日期型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ProductId</t>
@@ -246,43 +246,43 @@
   </si>
   <si>
     <t>商品信息表（ProductGood）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提交人标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>封面图片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所属卖区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推荐热度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Number</t>
@@ -295,43 +295,43 @@
   </si>
   <si>
     <t>购物车信息表（ShopCar）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>购买人标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品封面图片路径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>总价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FBData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单信息表（OrderInfo）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OrderId</t>
@@ -356,75 +356,94 @@
   </si>
   <si>
     <t>订单标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下单日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>订单备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(200)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商品详情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(MAX)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TJRGuid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ImageUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Decriptions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Topceng</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,10 +456,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,24 +556,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -563,74 +583,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -905,20 +857,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -930,898 +883,909 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>2</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>4</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="4">
         <v>5</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F62" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B77" s="4">
         <v>6</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D79" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E79" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F79" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G79" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H79" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" s="2" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B59:H59"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B61:H61"/>
+    <mergeCell ref="B77:H77"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C17 C31 C43 C61 C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C17 C31 C43 C62 C79">
       <formula1>"请选择,字符型,数字型,日期型,日期时间型,布尔型,二进制"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4 G17 G31 G43 G61 G78"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G4 G17 G31 G43 G62 G79"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
